--- a/back-propagation/Metode Backpropagation.xlsx
+++ b/back-propagation/Metode Backpropagation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BISMILLAH\Documents\Pengenalan Pola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Pattern-Recognition\back-propagation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F530840-31B6-4AA5-B3CF-61DFC15273C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40B5FD9-BE83-4972-89BF-8DE66DA6D44E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E91651F2-DC14-4269-8168-661F3F946895}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{E91651F2-DC14-4269-8168-661F3F946895}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Latih Dan Data Uji" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -89,6 +80,36 @@
   </si>
   <si>
     <t>2019-Target Latih</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 3 tahun 2021: 9186.652438268295 Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 4 tahun 2021: 8459.852918169177 Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 5 tahun 2021: 13126.663071817136 Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 6 tahun 2021: 9648.498463121805 Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 7 tahun 2021: 10848.75073705608 Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 8 tahun 2021: 10955.805812071005 Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 9 tahun 2021: 10697.36853603106 Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 10 tahun 2021: 9841.506543417101 Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 11 tahun 2021: 9183.767296379698 Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Prediksi jumlah penerima bantuan sembako pada bulan 12 tahun 2021: 9960.124441421896 Kepala Keluarga</t>
   </si>
 </sst>
 </file>
@@ -153,10 +174,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,344 +493,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F6C747-ABF1-47CA-BA47-E9801652F6AB}">
-  <dimension ref="C4:I18"/>
+  <dimension ref="C4:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2">
+    <row r="6" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1">
         <v>2016</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>2017</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>2018</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>2019</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="2">
+    <row r="7" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>10009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>9850</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>9888</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>7899</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>9005</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="2">
+      <c r="J7">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>9876</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>7800</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>9866</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>8999</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>8990</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="2">
+      <c r="J8">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>8755</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>8502</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>7809</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>7890</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>12067</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C10" s="2">
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>8775</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>9887</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>8907</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>6987</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>14012</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="2">
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>9008</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>9234</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>8751</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>7985</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>11002</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C12" s="2">
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>8765</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>9881</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>8253</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>8660</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>14004</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="2">
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>6760</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>7888</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>7612</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>9877</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>14034</v>
       </c>
-    </row>
-    <row r="14" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C14" s="2">
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>8999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>8777</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>9888</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>10192</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>15006</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C15" s="2">
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>7652</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>11121</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>10111</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>9978</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>15053</v>
       </c>
-    </row>
-    <row r="16" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="2">
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>9070</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>10029</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>9987</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>8755</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>14889</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="2">
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>8901</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>9553</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>9997</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>7654</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>13988</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C18" s="2">
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>8764</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>10222</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>10002</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>8905</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>15023</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -827,341 +884,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8074DE6-7982-44D4-A62E-36211AEECCB9}">
   <dimension ref="C3:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.54296875" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2">
+    <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1">
         <v>2016</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>2017</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2018</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C6" s="2">
+    <row r="6" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.3997</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.38769999999999999</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.1905</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>0.30009999999999998</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="2">
+    <row r="7" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.38650000000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.18060000000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.38550000000000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.29959999999999998</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0.29870000000000002</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="2">
+    <row r="8" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.27539999999999998</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.25030000000000002</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.18149999999999999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>0.18959999999999999</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>0.6038</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="2">
+    <row r="9" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.27729999999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.3876</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.29039999999999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0.79679999999999995</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C10" s="2">
+    <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.3004</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.32290000000000002</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.19900000000000001</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>0.49819999999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="2">
+    <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.27629999999999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.38700000000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.22559999999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.26590000000000003</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C12" s="2">
+    <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.18940000000000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.3866</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>0.79890000000000005</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="2">
+    <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0.29959999999999998</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.27750000000000002</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>0.38769999999999999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>0.41789999999999999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0.89529999999999998</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C14" s="2">
+    <row r="14" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.16600000000000001</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.51</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0.4098</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>0.3967</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C15" s="2">
+    <row r="15" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.30659999999999998</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0.4017</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0.39750000000000002</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>0.27539999999999998</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0.88370000000000004</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="2">
+    <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>0.2898</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0.35449999999999998</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.39850000000000002</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>0.16619999999999999</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0.7944</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="2">
+    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>0.2762</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0.4209</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>0.39900000000000002</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>0.29020000000000001</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>0.89700000000000002</v>
       </c>
     </row>

--- a/back-propagation/Metode Backpropagation.xlsx
+++ b/back-propagation/Metode Backpropagation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Pattern-Recognition\back-propagation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40B5FD9-BE83-4972-89BF-8DE66DA6D44E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D78A06-19CB-40C7-A1C9-3A5265B9FC99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{E91651F2-DC14-4269-8168-661F3F946895}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="1" xr2:uid="{E91651F2-DC14-4269-8168-661F3F946895}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Latih Dan Data Uji" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -80,36 +80,6 @@
   </si>
   <si>
     <t>2019-Target Latih</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 3 tahun 2021: 9186.652438268295 Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 4 tahun 2021: 8459.852918169177 Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 5 tahun 2021: 13126.663071817136 Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 6 tahun 2021: 9648.498463121805 Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 7 tahun 2021: 10848.75073705608 Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 8 tahun 2021: 10955.805812071005 Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 9 tahun 2021: 10697.36853603106 Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 10 tahun 2021: 9841.506543417101 Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 11 tahun 2021: 9183.767296379698 Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Prediksi jumlah penerima bantuan sembako pada bulan 12 tahun 2021: 9960.124441421896 Kepala Keluarga</t>
   </si>
 </sst>
 </file>
@@ -493,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F6C747-ABF1-47CA-BA47-E9801652F6AB}">
-  <dimension ref="C4:J18"/>
+  <dimension ref="C4:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +480,7 @@
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,7 +495,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
@@ -538,7 +508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="1">
@@ -557,7 +527,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -579,11 +549,8 @@
       <c r="I7" s="1">
         <v>9005</v>
       </c>
-      <c r="J7">
-        <v>8460</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -605,11 +572,8 @@
       <c r="I8" s="1">
         <v>8990</v>
       </c>
-      <c r="J8">
-        <v>10072</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -631,11 +595,8 @@
       <c r="I9" s="1">
         <v>12067</v>
       </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -657,11 +618,8 @@
       <c r="I10" s="1">
         <v>14012</v>
       </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -683,11 +641,8 @@
       <c r="I11" s="1">
         <v>11002</v>
       </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -709,11 +664,8 @@
       <c r="I12" s="1">
         <v>14004</v>
       </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -735,11 +687,8 @@
       <c r="I13" s="1">
         <v>14034</v>
       </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -761,11 +710,8 @@
       <c r="I14" s="1">
         <v>15006</v>
       </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -787,11 +733,8 @@
       <c r="I15" s="1">
         <v>15053</v>
       </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -813,11 +756,8 @@
       <c r="I16" s="1">
         <v>14889</v>
       </c>
-      <c r="J16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -839,11 +779,8 @@
       <c r="I17" s="1">
         <v>13988</v>
       </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -864,9 +801,6 @@
       </c>
       <c r="I18" s="1">
         <v>15023</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -884,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8074DE6-7982-44D4-A62E-36211AEECCB9}">
   <dimension ref="C3:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
